--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-03.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="271">
   <si>
     <t>League</t>
   </si>
@@ -827,111 +827,6 @@
   </si>
   <si>
     <t>Union La Calera</t>
-  </si>
-  <si>
-    <t>33160249</t>
-  </si>
-  <si>
-    <t>33160250</t>
-  </si>
-  <si>
-    <t>33160188</t>
-  </si>
-  <si>
-    <t>33160245</t>
-  </si>
-  <si>
-    <t>33160247</t>
-  </si>
-  <si>
-    <t>33161062</t>
-  </si>
-  <si>
-    <t>33160274</t>
-  </si>
-  <si>
-    <t>1.227039060</t>
-  </si>
-  <si>
-    <t>1.227038970</t>
-  </si>
-  <si>
-    <t>1.227039330</t>
-  </si>
-  <si>
-    <t>1.227039240</t>
-  </si>
-  <si>
-    <t>1.227039150</t>
-  </si>
-  <si>
-    <t>1.227050559</t>
-  </si>
-  <si>
-    <t>1.227039420</t>
-  </si>
-  <si>
-    <t>1.227039105</t>
-  </si>
-  <si>
-    <t>1.227039015</t>
-  </si>
-  <si>
-    <t>1.227039375</t>
-  </si>
-  <si>
-    <t>1.227039285</t>
-  </si>
-  <si>
-    <t>1.227039195</t>
-  </si>
-  <si>
-    <t>1.227050604</t>
-  </si>
-  <si>
-    <t>1.227039465</t>
-  </si>
-  <si>
-    <t>1.227039144</t>
-  </si>
-  <si>
-    <t>1.227039054</t>
-  </si>
-  <si>
-    <t>1.227039414</t>
-  </si>
-  <si>
-    <t>1.227039324</t>
-  </si>
-  <si>
-    <t>1.227039234</t>
-  </si>
-  <si>
-    <t>1.227050643</t>
-  </si>
-  <si>
-    <t>1.227039504</t>
-  </si>
-  <si>
-    <t>1.227039069</t>
-  </si>
-  <si>
-    <t>1.227038979</t>
-  </si>
-  <si>
-    <t>1.227039339</t>
-  </si>
-  <si>
-    <t>1.227039249</t>
-  </si>
-  <si>
-    <t>1.227039159</t>
-  </si>
-  <si>
-    <t>1.227050568</t>
-  </si>
-  <si>
-    <t>1.227039429</t>
   </si>
 </sst>
 </file>
@@ -7377,8 +7272,8 @@
       <c r="BE31">
         <v>1000</v>
       </c>
-      <c r="BF31" t="s">
-        <v>271</v>
+      <c r="BF31">
+        <v>33160249</v>
       </c>
       <c r="BG31">
         <v>13082362</v>
@@ -7389,17 +7284,17 @@
       <c r="BI31">
         <v>58805</v>
       </c>
-      <c r="BJ31" t="s">
-        <v>278</v>
-      </c>
-      <c r="BK31" t="s">
-        <v>285</v>
-      </c>
-      <c r="BL31" t="s">
-        <v>292</v>
-      </c>
-      <c r="BM31" t="s">
-        <v>299</v>
+      <c r="BJ31">
+        <v>1.22703906</v>
+      </c>
+      <c r="BK31">
+        <v>1.227039105</v>
+      </c>
+      <c r="BL31">
+        <v>1.227039144</v>
+      </c>
+      <c r="BM31">
+        <v>1.227039069</v>
       </c>
     </row>
     <row r="32" spans="1:65">
@@ -7574,8 +7469,8 @@
       <c r="BE32">
         <v>1000</v>
       </c>
-      <c r="BF32" t="s">
-        <v>272</v>
+      <c r="BF32">
+        <v>33160250</v>
       </c>
       <c r="BG32">
         <v>40492492</v>
@@ -7586,17 +7481,17 @@
       <c r="BI32">
         <v>58805</v>
       </c>
-      <c r="BJ32" t="s">
-        <v>279</v>
-      </c>
-      <c r="BK32" t="s">
-        <v>286</v>
-      </c>
-      <c r="BL32" t="s">
-        <v>293</v>
-      </c>
-      <c r="BM32" t="s">
-        <v>300</v>
+      <c r="BJ32">
+        <v>1.22703897</v>
+      </c>
+      <c r="BK32">
+        <v>1.227039015</v>
+      </c>
+      <c r="BL32">
+        <v>1.227039054</v>
+      </c>
+      <c r="BM32">
+        <v>1.227038979</v>
       </c>
     </row>
     <row r="33" spans="1:65">
@@ -7771,8 +7666,8 @@
       <c r="BE33">
         <v>1000</v>
       </c>
-      <c r="BF33" t="s">
-        <v>273</v>
+      <c r="BF33">
+        <v>33160188</v>
       </c>
       <c r="BG33">
         <v>4835211</v>
@@ -7783,17 +7678,17 @@
       <c r="BI33">
         <v>58805</v>
       </c>
-      <c r="BJ33" t="s">
-        <v>280</v>
-      </c>
-      <c r="BK33" t="s">
-        <v>287</v>
-      </c>
-      <c r="BL33" t="s">
-        <v>294</v>
-      </c>
-      <c r="BM33" t="s">
-        <v>301</v>
+      <c r="BJ33">
+        <v>1.22703933</v>
+      </c>
+      <c r="BK33">
+        <v>1.227039375</v>
+      </c>
+      <c r="BL33">
+        <v>1.227039414</v>
+      </c>
+      <c r="BM33">
+        <v>1.227039339</v>
       </c>
     </row>
     <row r="34" spans="1:65">
@@ -7968,8 +7863,8 @@
       <c r="BE34">
         <v>1000</v>
       </c>
-      <c r="BF34" t="s">
-        <v>274</v>
+      <c r="BF34">
+        <v>33160245</v>
       </c>
       <c r="BG34">
         <v>25742292</v>
@@ -7980,17 +7875,17 @@
       <c r="BI34">
         <v>58805</v>
       </c>
-      <c r="BJ34" t="s">
-        <v>281</v>
-      </c>
-      <c r="BK34" t="s">
-        <v>288</v>
-      </c>
-      <c r="BL34" t="s">
-        <v>295</v>
-      </c>
-      <c r="BM34" t="s">
-        <v>302</v>
+      <c r="BJ34">
+        <v>1.22703924</v>
+      </c>
+      <c r="BK34">
+        <v>1.227039285</v>
+      </c>
+      <c r="BL34">
+        <v>1.227039324</v>
+      </c>
+      <c r="BM34">
+        <v>1.227039249</v>
       </c>
     </row>
     <row r="35" spans="1:65">
@@ -8165,8 +8060,8 @@
       <c r="BE35">
         <v>1000</v>
       </c>
-      <c r="BF35" t="s">
-        <v>275</v>
+      <c r="BF35">
+        <v>33160247</v>
       </c>
       <c r="BG35">
         <v>15434416</v>
@@ -8177,17 +8072,17 @@
       <c r="BI35">
         <v>58805</v>
       </c>
-      <c r="BJ35" t="s">
-        <v>282</v>
-      </c>
-      <c r="BK35" t="s">
-        <v>289</v>
-      </c>
-      <c r="BL35" t="s">
-        <v>296</v>
-      </c>
-      <c r="BM35" t="s">
-        <v>303</v>
+      <c r="BJ35">
+        <v>1.22703915</v>
+      </c>
+      <c r="BK35">
+        <v>1.227039195</v>
+      </c>
+      <c r="BL35">
+        <v>1.227039234</v>
+      </c>
+      <c r="BM35">
+        <v>1.227039159</v>
       </c>
     </row>
     <row r="36" spans="1:65">
@@ -8953,8 +8848,8 @@
       <c r="BE39">
         <v>1000</v>
       </c>
-      <c r="BF39" t="s">
-        <v>276</v>
+      <c r="BF39">
+        <v>33161062</v>
       </c>
       <c r="BG39">
         <v>7180004</v>
@@ -8965,17 +8860,17 @@
       <c r="BI39">
         <v>58805</v>
       </c>
-      <c r="BJ39" t="s">
-        <v>283</v>
-      </c>
-      <c r="BK39" t="s">
-        <v>290</v>
-      </c>
-      <c r="BL39" t="s">
-        <v>297</v>
-      </c>
-      <c r="BM39" t="s">
-        <v>304</v>
+      <c r="BJ39">
+        <v>1.227050559</v>
+      </c>
+      <c r="BK39">
+        <v>1.227050604</v>
+      </c>
+      <c r="BL39">
+        <v>1.227050643</v>
+      </c>
+      <c r="BM39">
+        <v>1.227050568</v>
       </c>
     </row>
     <row r="40" spans="1:65">
@@ -9150,8 +9045,8 @@
       <c r="BE40">
         <v>1000</v>
       </c>
-      <c r="BF40" t="s">
-        <v>277</v>
+      <c r="BF40">
+        <v>33160274</v>
       </c>
       <c r="BG40">
         <v>13082371</v>
@@ -9162,17 +9057,17 @@
       <c r="BI40">
         <v>58805</v>
       </c>
-      <c r="BJ40" t="s">
-        <v>284</v>
-      </c>
-      <c r="BK40" t="s">
-        <v>291</v>
-      </c>
-      <c r="BL40" t="s">
-        <v>298</v>
-      </c>
-      <c r="BM40" t="s">
-        <v>305</v>
+      <c r="BJ40">
+        <v>1.22703942</v>
+      </c>
+      <c r="BK40">
+        <v>1.227039465</v>
+      </c>
+      <c r="BL40">
+        <v>1.227039504</v>
+      </c>
+      <c r="BM40">
+        <v>1.227039429</v>
       </c>
     </row>
     <row r="41" spans="1:65">
@@ -14905,37 +14800,37 @@
         <v>259</v>
       </c>
       <c r="F70">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="G70">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="H70">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I70">
+        <v>3.4</v>
+      </c>
+      <c r="J70">
+        <v>3.3</v>
+      </c>
+      <c r="K70">
         <v>3.45</v>
       </c>
-      <c r="J70">
-        <v>3.2</v>
-      </c>
-      <c r="K70">
-        <v>3.6</v>
-      </c>
       <c r="L70">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="M70">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="N70">
         <v>2.1</v>
       </c>
       <c r="O70">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="P70">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q70">
         <v>2.02</v>
@@ -14953,52 +14848,52 @@
         <v>12</v>
       </c>
       <c r="V70">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="W70">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X70">
-        <v>5.1</v>
+        <v>18</v>
       </c>
       <c r="Y70">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z70">
-        <v>5.8</v>
+        <v>7.4</v>
       </c>
       <c r="AA70">
         <v>70</v>
       </c>
       <c r="AB70">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC70">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AD70">
         <v>7</v>
       </c>
       <c r="AE70">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AF70">
         <v>12.5</v>
       </c>
       <c r="AG70">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH70">
-        <v>5.6</v>
+        <v>28</v>
       </c>
       <c r="AI70">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ70">
         <v>13</v>
       </c>
       <c r="AK70">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL70">
         <v>10.5</v>
@@ -15007,55 +14902,55 @@
         <v>13</v>
       </c>
       <c r="AN70">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO70">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP70">
-        <v>5.8</v>
+        <v>7.2</v>
       </c>
       <c r="AQ70">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AR70">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AS70">
         <v>40</v>
       </c>
       <c r="AT70">
-        <v>5.4</v>
+        <v>24</v>
       </c>
       <c r="AU70">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AV70">
-        <v>5.7</v>
+        <v>7.2</v>
       </c>
       <c r="AW70">
         <v>55</v>
       </c>
       <c r="AX70">
-        <v>6</v>
+        <v>7.8</v>
       </c>
       <c r="AY70">
         <v>980</v>
       </c>
       <c r="AZ70">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="BA70">
         <v>28</v>
       </c>
       <c r="BB70">
-        <v>5.6</v>
+        <v>7.4</v>
       </c>
       <c r="BC70">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="BD70">
-        <v>6.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE70">
         <v>1000</v>
@@ -15102,16 +14997,16 @@
         <v>260</v>
       </c>
       <c r="F71">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="G71">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H71">
+        <v>2.26</v>
+      </c>
+      <c r="I71">
         <v>2.36</v>
-      </c>
-      <c r="I71">
-        <v>2.46</v>
       </c>
       <c r="J71">
         <v>3.3</v>
@@ -15120,7 +15015,7 @@
         <v>3.4</v>
       </c>
       <c r="L71">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="M71">
         <v>1.73</v>
@@ -15129,130 +15024,130 @@
         <v>2.38</v>
       </c>
       <c r="O71">
-        <v>2.58</v>
+        <v>2.44</v>
       </c>
       <c r="P71">
         <v>1.95</v>
       </c>
       <c r="Q71">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R71">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="S71">
         <v>2.06</v>
       </c>
       <c r="T71">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="U71">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="V71">
         <v>7.6</v>
       </c>
       <c r="W71">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="X71">
+        <v>12</v>
+      </c>
+      <c r="Y71">
+        <v>14</v>
+      </c>
+      <c r="Z71">
+        <v>27</v>
+      </c>
+      <c r="AA71">
+        <v>34</v>
+      </c>
+      <c r="AB71">
+        <v>10</v>
+      </c>
+      <c r="AC71">
         <v>11.5</v>
       </c>
-      <c r="Y71">
+      <c r="AD71">
+        <v>7</v>
+      </c>
+      <c r="AE71">
+        <v>7.6</v>
+      </c>
+      <c r="AF71">
+        <v>10.5</v>
+      </c>
+      <c r="AG71">
+        <v>12</v>
+      </c>
+      <c r="AH71">
+        <v>25</v>
+      </c>
+      <c r="AI71">
+        <v>30</v>
+      </c>
+      <c r="AJ71">
+        <v>20</v>
+      </c>
+      <c r="AK71">
+        <v>24</v>
+      </c>
+      <c r="AL71">
+        <v>13.5</v>
+      </c>
+      <c r="AM71">
         <v>15.5</v>
       </c>
-      <c r="Z71">
-        <v>6.4</v>
-      </c>
-      <c r="AA71">
-        <v>38</v>
-      </c>
-      <c r="AB71">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC71">
-        <v>12.5</v>
-      </c>
-      <c r="AD71">
-        <v>6.6</v>
-      </c>
-      <c r="AE71">
-        <v>7.8</v>
-      </c>
-      <c r="AF71">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG71">
-        <v>13</v>
-      </c>
-      <c r="AH71">
-        <v>6.4</v>
-      </c>
-      <c r="AI71">
-        <v>34</v>
-      </c>
-      <c r="AJ71">
-        <v>18.5</v>
-      </c>
-      <c r="AK71">
-        <v>25</v>
-      </c>
-      <c r="AL71">
-        <v>12.5</v>
-      </c>
-      <c r="AM71">
-        <v>16.5</v>
-      </c>
       <c r="AN71">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AO71">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP71">
-        <v>6.8</v>
+        <v>40</v>
       </c>
       <c r="AQ71">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AR71">
-        <v>6.8</v>
+        <v>44</v>
       </c>
       <c r="AS71">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AT71">
-        <v>6.6</v>
+        <v>44</v>
       </c>
       <c r="AU71">
         <v>55</v>
       </c>
       <c r="AV71">
-        <v>6.8</v>
+        <v>46</v>
       </c>
       <c r="AW71">
         <v>980</v>
       </c>
       <c r="AX71">
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="AY71">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="AZ71">
-        <v>6.8</v>
+        <v>30</v>
       </c>
       <c r="BA71">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="BB71">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="BC71">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="BD71">
-        <v>7.6</v>
+        <v>13.5</v>
       </c>
       <c r="BE71">
         <v>1000</v>
@@ -15299,97 +15194,97 @@
         <v>261</v>
       </c>
       <c r="F72">
+        <v>1.56</v>
+      </c>
+      <c r="G72">
         <v>1.59</v>
       </c>
-      <c r="G72">
-        <v>1.64</v>
-      </c>
       <c r="H72">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="I72">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="J72">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K72">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L72">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="M72">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="N72">
         <v>2.04</v>
       </c>
       <c r="O72">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="P72">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="Q72">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="R72">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="S72">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="T72">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="U72">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="V72">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W72">
         <v>21</v>
       </c>
       <c r="X72">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="Y72">
         <v>60</v>
       </c>
       <c r="Z72">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AA72">
-        <v>980</v>
+        <v>250</v>
       </c>
       <c r="AB72">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AC72">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AD72">
         <v>8.800000000000001</v>
       </c>
       <c r="AE72">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AF72">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG72">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH72">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI72">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="AJ72">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AK72">
         <v>8.6</v>
@@ -15407,49 +15302,49 @@
         <v>26</v>
       </c>
       <c r="AP72">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AQ72">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AR72">
         <v>13</v>
       </c>
       <c r="AS72">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AT72">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AU72">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AV72">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AW72">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AX72">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AY72">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AZ72">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="BA72">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="BB72">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="BC72">
         <v>170</v>
       </c>
       <c r="BD72">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="BE72">
         <v>1000</v>
@@ -15496,160 +15391,160 @@
         <v>262</v>
       </c>
       <c r="F73">
-        <v>2.32</v>
+        <v>2.58</v>
       </c>
       <c r="G73">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="H73">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I73">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="J73">
         <v>3.1</v>
       </c>
       <c r="K73">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L73">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="M73">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="N73">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="O73">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="P73">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="Q73">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="R73">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="S73">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="T73">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="U73">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="V73">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="W73">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="X73">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Y73">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="Z73">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA73">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AB73">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AC73">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AD73">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="AE73">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AF73">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AG73">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AH73">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="AI73">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AJ73">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AK73">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AL73">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AM73">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN73">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AO73">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AP73">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AQ73">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AR73">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="AS73">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AT73">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="AU73">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AV73">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="AW73">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AX73">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="AY73">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AZ73">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="BA73">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BB73">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="BC73">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="BD73">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="BE73">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BF73">
         <v>33125192</v>
@@ -15693,67 +15588,67 @@
         <v>263</v>
       </c>
       <c r="F74">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="G74">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H74">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="I74">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="J74">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K74">
         <v>3.65</v>
       </c>
       <c r="L74">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="M74">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="N74">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="O74">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="P74">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="Q74">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R74">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="S74">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="T74">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U74">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="V74">
         <v>8</v>
       </c>
       <c r="W74">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="X74">
         <v>10.5</v>
       </c>
       <c r="Y74">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="Z74">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AA74">
         <v>34</v>
@@ -15762,7 +15657,7 @@
         <v>10.5</v>
       </c>
       <c r="AC74">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AD74">
         <v>7</v>
@@ -15771,7 +15666,7 @@
         <v>8.4</v>
       </c>
       <c r="AF74">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG74">
         <v>12.5</v>
@@ -15789,10 +15684,10 @@
         <v>32</v>
       </c>
       <c r="AL74">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AM74">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AN74">
         <v>16</v>
@@ -15801,49 +15696,49 @@
         <v>24</v>
       </c>
       <c r="AP74">
-        <v>4.8</v>
+        <v>6.4</v>
       </c>
       <c r="AQ74">
         <v>55</v>
       </c>
       <c r="AR74">
-        <v>4.9</v>
+        <v>6.6</v>
       </c>
       <c r="AS74">
         <v>980</v>
       </c>
       <c r="AT74">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
       <c r="AU74">
         <v>60</v>
       </c>
       <c r="AV74">
-        <v>4.9</v>
+        <v>6.4</v>
       </c>
       <c r="AW74">
         <v>75</v>
       </c>
       <c r="AX74">
-        <v>5.1</v>
+        <v>7</v>
       </c>
       <c r="AY74">
         <v>980</v>
       </c>
       <c r="AZ74">
-        <v>4.8</v>
+        <v>6.4</v>
       </c>
       <c r="BA74">
         <v>65</v>
       </c>
       <c r="BB74">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="BC74">
         <v>23</v>
       </c>
       <c r="BD74">
-        <v>5.2</v>
+        <v>7.2</v>
       </c>
       <c r="BE74">
         <v>1000</v>
@@ -15890,157 +15785,157 @@
         <v>264</v>
       </c>
       <c r="F75">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="G75">
+        <v>7</v>
+      </c>
+      <c r="H75">
+        <v>1.65</v>
+      </c>
+      <c r="I75">
+        <v>1.7</v>
+      </c>
+      <c r="J75">
+        <v>3.9</v>
+      </c>
+      <c r="K75">
+        <v>4.1</v>
+      </c>
+      <c r="L75">
+        <v>1.8</v>
+      </c>
+      <c r="M75">
+        <v>1.89</v>
+      </c>
+      <c r="N75">
+        <v>2.12</v>
+      </c>
+      <c r="O75">
+        <v>2.26</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>10.5</v>
+      </c>
+      <c r="U75">
+        <v>12</v>
+      </c>
+      <c r="V75">
         <v>6.6</v>
-      </c>
-      <c r="H75">
-        <v>1.67</v>
-      </c>
-      <c r="I75">
-        <v>1.76</v>
-      </c>
-      <c r="J75">
-        <v>3.65</v>
-      </c>
-      <c r="K75">
-        <v>3.95</v>
-      </c>
-      <c r="L75">
-        <v>1.71</v>
-      </c>
-      <c r="M75">
-        <v>1.87</v>
-      </c>
-      <c r="N75">
-        <v>2.16</v>
-      </c>
-      <c r="O75">
-        <v>2.42</v>
-      </c>
-      <c r="P75">
-        <v>2.12</v>
-      </c>
-      <c r="Q75">
-        <v>2.38</v>
-      </c>
-      <c r="R75">
-        <v>1.73</v>
-      </c>
-      <c r="S75">
-        <v>1.9</v>
-      </c>
-      <c r="T75">
-        <v>9.4</v>
-      </c>
-      <c r="U75">
-        <v>12.5</v>
-      </c>
-      <c r="V75">
-        <v>6.4</v>
       </c>
       <c r="W75">
         <v>7.4</v>
       </c>
       <c r="X75">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Y75">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="Z75">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA75">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AB75">
+        <v>16</v>
+      </c>
+      <c r="AC75">
+        <v>19.5</v>
+      </c>
+      <c r="AD75">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE75">
+        <v>9</v>
+      </c>
+      <c r="AF75">
+        <v>9.6</v>
+      </c>
+      <c r="AG75">
+        <v>10.5</v>
+      </c>
+      <c r="AH75">
+        <v>17.5</v>
+      </c>
+      <c r="AI75">
+        <v>20</v>
+      </c>
+      <c r="AJ75">
+        <v>42</v>
+      </c>
+      <c r="AK75">
+        <v>50</v>
+      </c>
+      <c r="AL75">
+        <v>22</v>
+      </c>
+      <c r="AM75">
+        <v>980</v>
+      </c>
+      <c r="AN75">
+        <v>22</v>
+      </c>
+      <c r="AO75">
+        <v>26</v>
+      </c>
+      <c r="AP75">
+        <v>38</v>
+      </c>
+      <c r="AQ75">
+        <v>46</v>
+      </c>
+      <c r="AR75">
         <v>14</v>
       </c>
-      <c r="AC75">
-        <v>19</v>
-      </c>
-      <c r="AD75">
-        <v>7.8</v>
-      </c>
-      <c r="AE75">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AF75">
-        <v>9</v>
-      </c>
-      <c r="AG75">
-        <v>11.5</v>
-      </c>
-      <c r="AH75">
-        <v>16.5</v>
-      </c>
-      <c r="AI75">
-        <v>23</v>
-      </c>
-      <c r="AJ75">
+      <c r="AS75">
+        <v>210</v>
+      </c>
+      <c r="AT75">
+        <v>14.5</v>
+      </c>
+      <c r="AU75">
+        <v>980</v>
+      </c>
+      <c r="AV75">
+        <v>14.5</v>
+      </c>
+      <c r="AW75">
+        <v>120</v>
+      </c>
+      <c r="AX75">
+        <v>14</v>
+      </c>
+      <c r="AY75">
+        <v>980</v>
+      </c>
+      <c r="AZ75">
+        <v>14</v>
+      </c>
+      <c r="BA75">
+        <v>160</v>
+      </c>
+      <c r="BB75">
         <v>7</v>
       </c>
-      <c r="AK75">
-        <v>55</v>
-      </c>
-      <c r="AL75">
-        <v>20</v>
-      </c>
-      <c r="AM75">
-        <v>27</v>
-      </c>
-      <c r="AN75">
-        <v>21</v>
-      </c>
-      <c r="AO75">
-        <v>28</v>
-      </c>
-      <c r="AP75">
-        <v>7</v>
-      </c>
-      <c r="AQ75">
-        <v>55</v>
-      </c>
-      <c r="AR75">
-        <v>7.8</v>
-      </c>
-      <c r="AS75">
-        <v>980</v>
-      </c>
-      <c r="AT75">
-        <v>7.6</v>
-      </c>
-      <c r="AU75">
-        <v>980</v>
-      </c>
-      <c r="AV75">
-        <v>7.6</v>
-      </c>
-      <c r="AW75">
-        <v>980</v>
-      </c>
-      <c r="AX75">
-        <v>7.8</v>
-      </c>
-      <c r="AY75">
-        <v>980</v>
-      </c>
-      <c r="AZ75">
-        <v>7.6</v>
-      </c>
-      <c r="BA75">
-        <v>980</v>
-      </c>
-      <c r="BB75">
-        <v>5.2</v>
-      </c>
       <c r="BC75">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="BD75">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BE75">
         <v>1000</v>
@@ -16284,25 +16179,25 @@
         <v>266</v>
       </c>
       <c r="F77">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="G77">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="H77">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="I77">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J77">
+        <v>3.4</v>
+      </c>
+      <c r="K77">
         <v>3.5</v>
       </c>
-      <c r="K77">
-        <v>3.7</v>
-      </c>
       <c r="L77">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="M77">
         <v>1.73</v>
@@ -16311,40 +16206,40 @@
         <v>2.38</v>
       </c>
       <c r="O77">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="P77">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="Q77">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="R77">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="S77">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T77">
         <v>8.800000000000001</v>
       </c>
       <c r="U77">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="V77">
         <v>12.5</v>
       </c>
       <c r="W77">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="X77">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="Y77">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z77">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="AA77">
         <v>980</v>
@@ -16353,7 +16248,7 @@
         <v>6.4</v>
       </c>
       <c r="AC77">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD77">
         <v>7</v>
@@ -16362,22 +16257,22 @@
         <v>8.4</v>
       </c>
       <c r="AF77">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG77">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH77">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI77">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AJ77">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AK77">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AL77">
         <v>9.6</v>
@@ -16389,16 +16284,16 @@
         <v>19.5</v>
       </c>
       <c r="AO77">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP77">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="AQ77">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AR77">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AS77">
         <v>27</v>
@@ -16410,31 +16305,31 @@
         <v>29</v>
       </c>
       <c r="AV77">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="AW77">
         <v>60</v>
       </c>
       <c r="AX77">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="AY77">
         <v>980</v>
       </c>
       <c r="AZ77">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="BA77">
         <v>22</v>
       </c>
       <c r="BB77">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="BC77">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="BD77">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="BE77">
         <v>1000</v>
@@ -16875,157 +16770,157 @@
         <v>269</v>
       </c>
       <c r="F80">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="K80">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="L80">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="M80">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="N80">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="O80">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="P80">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="Q80">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="R80">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="S80">
-        <v>2.06</v>
+        <v>1.97</v>
       </c>
       <c r="T80">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="U80">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V80">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="W80">
         <v>7.6</v>
       </c>
       <c r="X80">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Y80">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z80">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AA80">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB80">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC80">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD80">
         <v>7.4</v>
       </c>
       <c r="AE80">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AF80">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="AG80">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH80">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AI80">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ80">
-        <v>7.2</v>
+        <v>30</v>
       </c>
       <c r="AK80">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AL80">
+        <v>18</v>
+      </c>
+      <c r="AM80">
+        <v>20</v>
+      </c>
+      <c r="AN80">
+        <v>20</v>
+      </c>
+      <c r="AO80">
+        <v>23</v>
+      </c>
+      <c r="AP80">
+        <v>40</v>
+      </c>
+      <c r="AQ80">
+        <v>48</v>
+      </c>
+      <c r="AR80">
+        <v>16.5</v>
+      </c>
+      <c r="AS80">
+        <v>980</v>
+      </c>
+      <c r="AT80">
+        <v>15.5</v>
+      </c>
+      <c r="AU80">
+        <v>980</v>
+      </c>
+      <c r="AV80">
+        <v>16</v>
+      </c>
+      <c r="AW80">
+        <v>980</v>
+      </c>
+      <c r="AX80">
         <v>17</v>
       </c>
-      <c r="AM80">
-        <v>23</v>
-      </c>
-      <c r="AN80">
-        <v>19.5</v>
-      </c>
-      <c r="AO80">
-        <v>26</v>
-      </c>
-      <c r="AP80">
-        <v>7.4</v>
-      </c>
-      <c r="AQ80">
-        <v>980</v>
-      </c>
-      <c r="AR80">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AS80">
-        <v>980</v>
-      </c>
-      <c r="AT80">
-        <v>7.8</v>
-      </c>
-      <c r="AU80">
-        <v>980</v>
-      </c>
-      <c r="AV80">
-        <v>8</v>
-      </c>
-      <c r="AW80">
-        <v>980</v>
-      </c>
-      <c r="AX80">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AY80">
         <v>980</v>
       </c>
       <c r="AZ80">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BA80">
         <v>980</v>
       </c>
       <c r="BB80">
-        <v>5.7</v>
+        <v>15</v>
       </c>
       <c r="BC80">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="BD80">
-        <v>8.6</v>
+        <v>21</v>
       </c>
       <c r="BE80">
         <v>1000</v>
@@ -17034,13 +16929,13 @@
         <v>33125234</v>
       </c>
       <c r="BG80">
-        <v>219457</v>
+        <v>0</v>
       </c>
       <c r="BH80">
-        <v>198133</v>
+        <v>0</v>
       </c>
       <c r="BI80">
-        <v>58805</v>
+        <v>0</v>
       </c>
       <c r="BJ80">
         <v>1.226433957</v>
